--- a/biology/Zoologie/Discodorididae/Discodorididae.xlsx
+++ b/biology/Zoologie/Discodorididae/Discodorididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Discodorididae forment une famille de mollusques de l'ordre des nudibranches. 
 </t>
@@ -511,9 +523,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps est abaissé et n'est pas dur. Le manteau est peu granuleux avec le bord assez large. Les tentacules sont digitiformes. Les feuilles branchiales sont presque toujours tri ou quadri-pennées. Le pied est assez large. L'armature labiale est formée de petits bâtonnets compactes. La radula n'a pas de dent rachidienne. Elle est armée de multiples dents en forme de crochets. Le pénis n'est pas armé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est abaissé et n'est pas dur. Le manteau est peu granuleux avec le bord assez large. Les tentacules sont digitiformes. Les feuilles branchiales sont presque toujours tri ou quadri-pennées. Le pied est assez large. L'armature labiale est formée de petits bâtonnets compactes. La radula n'a pas de dent rachidienne. Elle est armée de multiples dents en forme de crochets. Le pénis n'est pas armé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte 29 genres[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte 29 genres :
 Alloiodoris Bergh, 1904
 Aporodoris Ihering, 1886
 Argus Bohadsch, 1761
@@ -620,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bergh, R. 1891. Die cryptobranchiaten Dorididen. Zoologische Jahrbücher Abtheilung für Systematik, Geographie und Biologie der Tiere, 6: 103–144. (BHL)</t>
         </is>
